--- a/BreastTissue.xlsx
+++ b/BreastTissue.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\courses\machine_learnning\2020\ex2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammadSharabati/PycharmProjects/machineLearning/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544F501B-E672-844B-A553-CEBCEC42813A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -181,7 +190,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -533,41 +542,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -580,7 +589,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -593,7 +602,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -606,7 +615,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -619,7 +628,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -632,7 +641,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -645,33 +654,33 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E14" s="4">
         <f>SUM(E8:E13)</f>
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>26</v>
       </c>
@@ -679,7 +688,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>1</v>
       </c>
@@ -687,7 +696,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>38</v>
       </c>
@@ -695,7 +704,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>2</v>
       </c>
@@ -703,7 +712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>31</v>
       </c>
@@ -711,7 +720,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>39</v>
       </c>
@@ -719,7 +728,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>34</v>
       </c>
@@ -727,7 +736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>5</v>
       </c>
@@ -735,7 +744,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>40</v>
       </c>
@@ -743,10 +752,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="14" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>45</v>
       </c>
@@ -754,7 +763,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>46</v>
       </c>
@@ -768,29 +777,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" customWidth="1"/>
-    <col min="3" max="11" width="8.7109375" style="7" customWidth="1"/>
-    <col min="12" max="13" width="5.28515625" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" customWidth="1"/>
-    <col min="16" max="16" width="5.85546875" customWidth="1"/>
-    <col min="17" max="17" width="6.42578125" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" customWidth="1"/>
-    <col min="22" max="22" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" customWidth="1"/>
+    <col min="3" max="11" width="8.6640625" style="7" customWidth="1"/>
+    <col min="12" max="13" width="5.33203125" customWidth="1"/>
+    <col min="14" max="14" width="5.5" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" customWidth="1"/>
+    <col min="16" max="16" width="5.83203125" customWidth="1"/>
+    <col min="17" max="17" width="6.5" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" customWidth="1"/>
+    <col min="21" max="21" width="5.83203125" customWidth="1"/>
+    <col min="22" max="22" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -825,7 +834,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -860,7 +869,7 @@
         <v>556.82833418103553</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -887,7 +896,7 @@
         <v>26.109201781526277</v>
       </c>
       <c r="I3" s="7">
-        <v>69.717361450195313</v>
+        <v>69.717361450195312</v>
       </c>
       <c r="J3" s="7">
         <v>99.084964000290057</v>
@@ -896,7 +905,7 @@
         <v>400.22577598267299</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -932,7 +941,7 @@
         <v>656.76944940246415</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -968,7 +977,7 @@
         <v>493.70181350243763</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1004,7 +1013,7 @@
         <v>424.79650338682472</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1040,7 +1049,7 @@
         <v>429.38578786035254</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1076,7 +1085,7 @@
         <v>330.26729289569721</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1112,7 +1121,7 @@
         <v>331.58830166732992</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1148,7 +1157,7 @@
         <v>603.31571507858621</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1175,7 +1184,7 @@
         <v>35.43576213917828</v>
       </c>
       <c r="I11" s="7">
-        <v>79.056350708007813</v>
+        <v>79.056350708007812</v>
       </c>
       <c r="J11" s="7">
         <v>153.17290287446389</v>
@@ -1184,7 +1193,7 @@
         <v>558.27451532804673</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1211,7 +1220,7 @@
         <v>41.524303399341235</v>
       </c>
       <c r="I12" s="7">
-        <v>67.523208618164063</v>
+        <v>67.523208618164062</v>
       </c>
       <c r="J12" s="7">
         <v>246.74282554382629</v>
@@ -1220,7 +1229,7 @@
         <v>508.54035601685501</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1256,7 +1265,7 @@
         <v>602.52784062672345</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1292,7 +1301,7 @@
         <v>525.42014943508241</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1319,7 +1328,7 @@
         <v>40.897237330589988</v>
       </c>
       <c r="I15" s="7">
-        <v>75.604324340820313</v>
+        <v>75.604324340820312</v>
       </c>
       <c r="J15" s="7">
         <v>155.32228492520053</v>
@@ -1328,7 +1337,7 @@
         <v>471.58819537978587</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1364,7 +1373,7 @@
         <v>541.36397505697698</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1391,7 +1400,7 @@
         <v>40.929612001003129</v>
       </c>
       <c r="I17" s="7">
-        <v>70.324783325195313</v>
+        <v>70.324783325195312</v>
       </c>
       <c r="J17" s="7">
         <v>236.49016966651149</v>
@@ -1400,7 +1409,7 @@
         <v>477.54835996048695</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1436,7 +1445,7 @@
         <v>329.09064707664464</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1472,7 +1481,7 @@
         <v>387.07822753991155</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1508,7 +1517,7 @@
         <v>462.70300693388481</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1544,7 +1553,7 @@
         <v>445.51329936622625</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1571,7 +1580,7 @@
         <v>21.114403135008889</v>
       </c>
       <c r="I22" s="7">
-        <v>96.563369750976563</v>
+        <v>96.563369750976562</v>
       </c>
       <c r="J22" s="7">
         <v>107.75110297895458</v>
@@ -1580,7 +1589,7 @@
         <v>542.89708889201984</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1616,7 +1625,7 @@
         <v>217.13070402759834</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1652,7 +1661,7 @@
         <v>200.74933643465556</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1688,7 +1697,7 @@
         <v>292.37623844633731</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1724,7 +1733,7 @@
         <v>382.73318653544993</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1760,7 +1769,7 @@
         <v>263.64076130804494</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1796,7 +1805,7 @@
         <v>267.51744602835038</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1832,7 +1841,7 @@
         <v>278.30861515872283</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1868,7 +1877,7 @@
         <v>218.03431309069128</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1904,7 +1913,7 @@
         <v>372.03995659846345</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1940,7 +1949,7 @@
         <v>286.92022032399927</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1976,7 +1985,7 @@
         <v>385.13345984226692</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2012,7 +2021,7 @@
         <v>187.56651824312087</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2048,7 +2057,7 @@
         <v>335.7684587866014</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2075,7 +2084,7 @@
         <v>10.660241545335175</v>
       </c>
       <c r="I36" s="7">
-        <v>25.836502075195313</v>
+        <v>25.836502075195312</v>
       </c>
       <c r="J36" s="7">
         <v>29.134376178980276</v>
@@ -2084,7 +2093,7 @@
         <v>184.81704093676674</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2120,7 +2129,7 @@
         <v>160.37377029283002</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2156,7 +2165,7 @@
         <v>215.90593417147724</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2192,7 +2201,7 @@
         <v>232.58762767330845</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2228,7 +2237,7 @@
         <v>433.20232214343685</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2264,7 +2273,7 @@
         <v>232.27762881853371</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2300,7 +2309,7 @@
         <v>307.79319366316031</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2336,7 +2345,7 @@
         <v>244.96515456016724</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2372,7 +2381,7 @@
         <v>501.8933575843684</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2408,7 +2417,7 @@
         <v>280.65829935000971</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2444,7 +2453,7 @@
         <v>174.93376995383633</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2480,7 +2489,7 @@
         <v>141.7661848938744</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2516,7 +2525,7 @@
         <v>239.94407278503019</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2552,7 +2561,7 @@
         <v>365.97765126177097</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2588,7 +2597,7 @@
         <v>248.62341224077375</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2624,7 +2633,7 @@
         <v>553.35820987673753</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2660,7 +2669,7 @@
         <v>388.97780836034292</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2696,7 +2705,7 @@
         <v>327.55863870408319</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2732,7 +2741,7 @@
         <v>398.89554884238146</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2768,7 +2777,7 @@
         <v>379.26183862496043</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2804,7 +2813,7 @@
         <v>491.4724884651377</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2840,7 +2849,7 @@
         <v>252.48334783646015</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2876,7 +2885,7 @@
         <v>180.60955331862425</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2912,7 +2921,7 @@
         <v>321.64683736204637</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2948,7 +2957,7 @@
         <v>280.12290642627005</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2984,7 +2993,7 @@
         <v>231.78378761425355</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3020,7 +3029,7 @@
         <v>231.78378761425355</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3056,7 +3065,7 @@
         <v>215.3729200694284</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3092,7 +3101,7 @@
         <v>209.18073791306793</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3128,7 +3137,7 @@
         <v>210.17871881992934</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3164,7 +3173,7 @@
         <v>400.9948178255749</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3200,7 +3209,7 @@
         <v>544.03941447133411</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68">
         <f t="shared" ref="A68:A107" si="1">A67+1</f>
         <v>67</v>
@@ -3236,7 +3245,7 @@
         <v>191.99287851174691</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -3272,7 +3281,7 @@
         <v>162.51092721718882</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -3308,7 +3317,7 @@
         <v>134.89269698285739</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3344,7 +3353,7 @@
         <v>124.97856100532223</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -3380,7 +3389,7 @@
         <v>1489.386712407925</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -3407,7 +3416,7 @@
         <v>43.387133721829883</v>
       </c>
       <c r="I73" s="7">
-        <v>143.09219360351563</v>
+        <v>143.09219360351562</v>
       </c>
       <c r="J73" s="7">
         <v>143.25778001878575</v>
@@ -3416,7 +3425,7 @@
         <v>1524.6092039900509</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -3452,7 +3461,7 @@
         <v>1064.1038276398706</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -3488,7 +3497,7 @@
         <v>623.90881411116004</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -3524,7 +3533,7 @@
         <v>1336.1585337698398</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -3560,7 +3569,7 @@
         <v>654.79841876608987</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -3596,7 +3605,7 @@
         <v>528.69923325106197</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -3632,7 +3641,7 @@
         <v>594.31562555524681</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -3668,7 +3677,7 @@
         <v>1428.8399755133669</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -3704,7 +3713,7 @@
         <v>1178.2742775089662</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -3740,7 +3749,7 @@
         <v>990.9789134419633</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -3776,7 +3785,7 @@
         <v>895.18744061088523</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -3812,7 +3821,7 @@
         <v>1402.877737475804</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -3848,7 +3857,7 @@
         <v>1197.7621500368809</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -3884,7 +3893,7 @@
         <v>2073.0286853635594</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -3920,7 +3929,7 @@
         <v>1742.3757016886241</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -3947,7 +3956,7 @@
         <v>79.173175717599023</v>
       </c>
       <c r="I88" s="7">
-        <v>436.09963989257813</v>
+        <v>436.09963989257812</v>
       </c>
       <c r="J88" s="7">
         <v>113.19857011212844</v>
@@ -3956,7 +3965,7 @@
         <v>2461.4504966685899</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -3992,7 +4001,7 @@
         <v>1746.5775035735142</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4028,7 +4037,7 @@
         <v>2212.1781964656434</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4064,7 +4073,7 @@
         <v>1941.367383186333</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4091,7 +4100,7 @@
         <v>51.703839849448435</v>
       </c>
       <c r="I92" s="7">
-        <v>160.06546020507813</v>
+        <v>160.06546020507812</v>
       </c>
       <c r="J92" s="7">
         <v>196.73049796407395</v>
@@ -4100,7 +4109,7 @@
         <v>1916.9853650896609</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4136,7 +4145,7 @@
         <v>2457.6767356259138</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4172,7 +4181,7 @@
         <v>1893.6637123932674</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4208,7 +4217,7 @@
         <v>1924.5178953496213</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4244,7 +4253,7 @@
         <v>1823.0323641656692</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4280,7 +4289,7 @@
         <v>1908.1772386649541</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4316,7 +4325,7 @@
         <v>1603.0703476206766</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4352,7 +4361,7 @@
         <v>2896.5824833035313</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4388,7 +4397,7 @@
         <v>2686.4353462707454</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4415,7 +4424,7 @@
         <v>63.65198828713222</v>
       </c>
       <c r="I101" s="7">
-        <v>261.34817504882813</v>
+        <v>261.34817504882812</v>
       </c>
       <c r="J101" s="7">
         <v>535.68940856870904</v>
@@ -4424,7 +4433,7 @@
         <v>2447.7723534764186</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -4460,7 +4469,7 @@
         <v>2063.0732120677112</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4496,7 +4505,7 @@
         <v>2088.648870169277</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4523,7 +4532,7 @@
         <v>164.07154330312019</v>
       </c>
       <c r="I104" s="7">
-        <v>418.68728637695313</v>
+        <v>418.68728637695312</v>
       </c>
       <c r="J104" s="7">
         <v>977.55236724335236</v>
@@ -4532,7 +4541,7 @@
         <v>2664.5836230561613</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -4568,7 +4577,7 @@
         <v>1475.3715337124897</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -4604,7 +4613,7 @@
         <v>2480.5921511319984</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>106</v>
